--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ahme\Desktop\eoscalculator\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220B40E6-EDB1-46E2-A4F9-44C82451464B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E5624-3CCF-47EB-8851-EAA9227CCC3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="538" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2934,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2945,7 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2953,13 +2953,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>27</v>
       </c>
@@ -2988,15 +2988,19 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f>C9</f>
+        <v>0.96741910756081761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
@@ -3014,7 +3018,7 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3042,7 +3046,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -3069,7 +3073,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>42</v>
       </c>
@@ -3098,7 +3102,7 @@
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>45</v>
       </c>
@@ -3125,7 +3129,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30">
@@ -3152,7 +3156,7 @@
         <v>3.4623777485815653E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>49</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>2.8903799244898477E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="17"/>
@@ -3200,13 +3204,13 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
